--- a/docs/チェックリスト改.xlsx
+++ b/docs/チェックリスト改.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\松浦基希\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\松浦基希\etrobocon2019\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>対象</t>
     <rPh sb="0" eb="2">
@@ -539,6 +539,10 @@
     <rPh sb="26" eb="27">
       <t>イ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>While文やfor文の中で、contrloller.tslpTsk(4)が入っている</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1033,9 +1037,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -1206,84 +1210,91 @@
       <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" ht="20" customHeight="1">
-      <c r="A22" s="12"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" ht="20" customHeight="1">
+      <c r="A23" s="12"/>
+      <c r="B23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1">
-      <c r="A23" s="11" t="s">
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" ht="20" customHeight="1">
+      <c r="A24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1">
-      <c r="A24" s="12"/>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" ht="20" customHeight="1">
+      <c r="A25" s="12"/>
+      <c r="B25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1">
-      <c r="A25" s="11" t="s">
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" ht="20" customHeight="1">
+      <c r="A26" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1">
-      <c r="A26" s="13"/>
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" ht="20" customHeight="1">
+      <c r="A27" s="13"/>
+      <c r="B27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1">
-      <c r="A27" s="12"/>
-      <c r="B27" s="5" t="s">
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" ht="20" customHeight="1">
+      <c r="A28" s="12"/>
+      <c r="B28" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1">
-      <c r="A28" s="11" t="s">
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3" ht="20" customHeight="1">
+      <c r="A29" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1">
-      <c r="A29" s="12"/>
-      <c r="B29" s="5" t="s">
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:3" ht="20" customHeight="1">
+      <c r="A30" s="12"/>
+      <c r="B30" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1">
-      <c r="B30" s="2"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="B31" s="2"/>
     </row>
+    <row r="32" spans="1:3" ht="20" customHeight="1">
+      <c r="B32" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A28"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A17:A23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/docs/チェックリスト改.xlsx
+++ b/docs/チェックリスト改.xlsx
@@ -513,13 +513,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コメントする時</t>
-    <rPh sb="6" eb="7">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>他のレビュアーの説明を助ける必要がありそうなら補足を入れる</t>
     <rPh sb="0" eb="1">
       <t>ホカ</t>
@@ -543,6 +536,13 @@
   </si>
   <si>
     <t>While文やfor文の中で、contrloller.tslpTsk(4)が入っている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビューする時</t>
+    <rPh sb="6" eb="7">
+      <t>トキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1039,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="20" customHeight="1"/>
@@ -1212,7 +1212,7 @@
     <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="13"/>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="4"/>
     </row>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>35</v>
@@ -1274,7 +1274,7 @@
     <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="12"/>
       <c r="B30" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="4"/>
     </row>
